--- a/dbplan.xlsx
+++ b/dbplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\data_by_daylight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E593D2-D9A2-4853-BE8D-48F8DE462410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CF6316-1267-49E2-B517-A54FB8560789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11985" yWindow="0" windowWidth="16815" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2400" yWindow="1245" windowWidth="13740" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -151,7 +151,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,8 +175,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,6 +201,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,20 +338,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -350,6 +359,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -636,7 +669,7 @@
   <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,706 +682,712 @@
     <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.7109375" customWidth="1"/>
     <col min="12" max="12" width="4.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" customWidth="1"/>
+    <col min="19" max="19" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="15"/>
+      <c r="E1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-      <c r="I1" s="1" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="10"/>
+      <c r="I1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="3"/>
-      <c r="M1" s="1" t="s">
+      <c r="J1" s="9"/>
+      <c r="K1" s="10"/>
+      <c r="M1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="3"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="8" t="s">
+      <c r="N1" s="9"/>
+      <c r="O1" s="10"/>
+      <c r="Q1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+    </row>
+    <row r="2" spans="1:19" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+    </row>
+    <row r="3" spans="1:19" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="7"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="7"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="8" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="3"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="3"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="3"/>
+      <c r="Q3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+    </row>
+    <row r="4" spans="1:19" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="7"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="7"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="7"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="3"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="3"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="3"/>
+      <c r="Q4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="7"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="7"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="7"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="3"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="11"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="11"/>
+      <c r="C6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="7"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
     </row>
     <row r="8" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="E8" s="1" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="E8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="3"/>
-      <c r="I8" s="1" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+      <c r="I8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="3"/>
-      <c r="M8" s="1" t="s">
+      <c r="J8" s="9"/>
+      <c r="K8" s="10"/>
+      <c r="M8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="3"/>
-      <c r="Q8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="10"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>7</v>
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="7"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="7"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="7"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="7"/>
-      <c r="Q10" t="s">
-        <v>8</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="3"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="11"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="11"/>
-      <c r="Q11" t="s">
-        <v>9</v>
-      </c>
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="7"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="7"/>
     </row>
     <row r="13" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="E13" s="1" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="E13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="3"/>
-      <c r="I13" s="1" t="s">
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+      <c r="I13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="3"/>
-      <c r="M13" s="1" t="s">
+      <c r="J13" s="9"/>
+      <c r="K13" s="10"/>
+      <c r="M13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="3"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="10"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="7"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="7"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="7"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="7"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="3"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="3"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="3"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="11"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="11"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="7"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="7"/>
     </row>
     <row r="18" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="E18" s="1" t="s">
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="E18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="3"/>
-      <c r="I18" s="1" t="s">
+      <c r="F18" s="9"/>
+      <c r="G18" s="10"/>
+      <c r="I18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="3"/>
-      <c r="M18" s="1" t="s">
+      <c r="J18" s="9"/>
+      <c r="K18" s="10"/>
+      <c r="M18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="3"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="10"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="6" t="s">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="G19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="7"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="7"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="7"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="7"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="3"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="11"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="11"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="11"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="7"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="7"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="7"/>
     </row>
     <row r="23" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-      <c r="E23" s="1" t="s">
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="E23" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="3"/>
-      <c r="I23" s="1" t="s">
+      <c r="F23" s="9"/>
+      <c r="G23" s="10"/>
+      <c r="I23" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="3"/>
-      <c r="M23" s="1" t="s">
+      <c r="J23" s="9"/>
+      <c r="K23" s="10"/>
+      <c r="M23" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="3"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="10"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="6" t="s">
+      <c r="A24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="G24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O24" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="7"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="7"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="7"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="7"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="3"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="3"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="3"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="3"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="11"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="11"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="11"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="7"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="7"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="7"/>
     </row>
     <row r="28" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
-      <c r="E28" s="1" t="s">
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="E28" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="3"/>
-      <c r="I28" s="1" t="s">
+      <c r="F28" s="9"/>
+      <c r="G28" s="10"/>
+      <c r="I28" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="3"/>
-      <c r="M28" s="1" t="s">
+      <c r="J28" s="9"/>
+      <c r="K28" s="10"/>
+      <c r="M28" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="3"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="10"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="6" t="s">
+      <c r="A29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N29" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O29" s="7" t="s">
+      <c r="G29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O29" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="7"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="7"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="7"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="7"/>
+      <c r="A30" s="1"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="3"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="3"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="3"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="3"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="11"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="11"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="11"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="7"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="7"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="7"/>
     </row>
     <row r="33" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="3"/>
-      <c r="E33" s="1" t="s">
+      <c r="B33" s="9"/>
+      <c r="C33" s="10"/>
+      <c r="E33" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="3"/>
-      <c r="I33" s="1" t="s">
+      <c r="F33" s="9"/>
+      <c r="G33" s="10"/>
+      <c r="I33" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="J33" s="2"/>
-      <c r="K33" s="3"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="15"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K34" s="7" t="s">
+      <c r="A34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K34" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="7"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="7"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="8" t="s">
+      <c r="A35" s="1"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="3"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="3"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="K35" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="11"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="8" t="s">
+      <c r="A36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="7"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="7"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="K36" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I37" s="5"/>
-      <c r="J37" s="8" t="s">
+      <c r="I37" s="1"/>
+      <c r="J37" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="K37" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I38" s="9" t="s">
+      <c r="I38" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J38" s="10" t="s">
+      <c r="J38" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K38" s="11" t="s">
+      <c r="K38" s="7" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="Q8:S8"/>
+  <mergeCells count="31">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="Q1:S1"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="I13:K13"/>
@@ -1357,17 +1396,23 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="I18:K18"/>
     <mergeCell ref="M18:O18"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="I23:K23"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="Q8" r:id="rId1" xr:uid="{03B201B6-B5CC-4AC6-9187-A65C9B2368AB}"/>
+    <hyperlink ref="Q1" r:id="rId1" xr:uid="{03B201B6-B5CC-4AC6-9187-A65C9B2368AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/dbplan.xlsx
+++ b/dbplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\data_by_daylight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E593D2-D9A2-4853-BE8D-48F8DE462410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D83A03D-DB7A-4225-91FA-2DF25031AB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11985" yWindow="0" windowWidth="16815" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13800" yWindow="150" windowWidth="13740" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="41">
   <si>
     <t>survivor</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>difficulty</t>
   </si>
 </sst>
 </file>
@@ -319,18 +322,6 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -350,6 +341,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -633,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S38"/>
+  <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,201 +655,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="E1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-      <c r="I1" s="1" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="10"/>
+      <c r="I1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="3"/>
-      <c r="M1" s="1" t="s">
+      <c r="J1" s="9"/>
+      <c r="K1" s="10"/>
+      <c r="M1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="3"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="10"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="7" t="s">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="7"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="7"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="7"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="3"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="3"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="7"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="7"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="7"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="3"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="3"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="7"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="7"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="7"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="3"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="11"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="11"/>
+      <c r="C6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="7"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
     </row>
     <row r="8" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="E8" s="1" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="E8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="3"/>
-      <c r="I8" s="1" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+      <c r="I8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="3"/>
-      <c r="M8" s="1" t="s">
+      <c r="J8" s="9"/>
+      <c r="K8" s="10"/>
+      <c r="M8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="3"/>
-      <c r="Q8" s="4" t="s">
+      <c r="N8" s="9"/>
+      <c r="O8" s="10"/>
+      <c r="Q8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Q9" t="s">
@@ -854,500 +857,506 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="7"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="7"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="7"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="7"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="3"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="3"/>
       <c r="Q10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="11"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="11"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="7"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="7"/>
       <c r="Q11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="E13" s="1" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="E13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="3"/>
-      <c r="I13" s="1" t="s">
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+      <c r="I13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="3"/>
-      <c r="M13" s="1" t="s">
+      <c r="J13" s="9"/>
+      <c r="K13" s="10"/>
+      <c r="M13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="3"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="10"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="7"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="7"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="7"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="7"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="3"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="3"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="3"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="11"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="11"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="7"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="7"/>
     </row>
     <row r="18" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="E18" s="1" t="s">
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="E18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="3"/>
-      <c r="I18" s="1" t="s">
+      <c r="F18" s="9"/>
+      <c r="G18" s="10"/>
+      <c r="I18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="3"/>
-      <c r="M18" s="1" t="s">
+      <c r="J18" s="9"/>
+      <c r="K18" s="10"/>
+      <c r="M18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="3"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="10"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="6" t="s">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="G19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="7"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="7"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="7"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="7"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="3"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="11"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="11"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="11"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="7"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="7"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="7"/>
     </row>
     <row r="23" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-      <c r="E23" s="1" t="s">
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="E23" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="3"/>
-      <c r="I23" s="1" t="s">
+      <c r="F23" s="9"/>
+      <c r="G23" s="10"/>
+      <c r="I23" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="3"/>
-      <c r="M23" s="1" t="s">
+      <c r="J23" s="9"/>
+      <c r="K23" s="10"/>
+      <c r="M23" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="3"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="10"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="6" t="s">
+      <c r="A24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="G24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O24" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="7"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="7"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="7"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="7"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="3"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="3"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="3"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="3"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="11"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="11"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="11"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="7"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="7"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="7"/>
     </row>
     <row r="28" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
-      <c r="E28" s="1" t="s">
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="E28" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="3"/>
-      <c r="I28" s="1" t="s">
+      <c r="F28" s="9"/>
+      <c r="G28" s="10"/>
+      <c r="I28" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="3"/>
-      <c r="M28" s="1" t="s">
+      <c r="J28" s="9"/>
+      <c r="K28" s="10"/>
+      <c r="M28" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="3"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="10"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="6" t="s">
+      <c r="A29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N29" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O29" s="7" t="s">
+      <c r="G29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O29" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="7"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="7"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="7"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="7"/>
+      <c r="A30" s="1"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="3"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="3"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="3"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="3"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="11"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="11"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="11"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="7"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="7"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="7"/>
     </row>
     <row r="33" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="3"/>
-      <c r="E33" s="1" t="s">
+      <c r="B33" s="9"/>
+      <c r="C33" s="10"/>
+      <c r="E33" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="3"/>
-      <c r="I33" s="1" t="s">
+      <c r="F33" s="9"/>
+      <c r="G33" s="10"/>
+      <c r="I33" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="J33" s="2"/>
-      <c r="K33" s="3"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="10"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K34" s="7" t="s">
+      <c r="A34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K34" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="7"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="7"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="8" t="s">
+      <c r="A35" s="1"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="3"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="3"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="K35" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="11"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="8" t="s">
+      <c r="A36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="7"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="7"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="K36" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I37" s="5"/>
-      <c r="J37" s="8" t="s">
+      <c r="I37" s="1"/>
+      <c r="J37" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="K37" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I38" s="9" t="s">
+      <c r="I38" s="1"/>
+      <c r="J38" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I39" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J38" s="10" t="s">
+      <c r="J39" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K38" s="11" t="s">
+      <c r="K39" s="7" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="M8:O8"/>
     <mergeCell ref="Q8:S8"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="E13:G13"/>
@@ -1357,14 +1366,17 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="I18:K18"/>
     <mergeCell ref="M18:O18"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="I23:K23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Q8" r:id="rId1" xr:uid="{03B201B6-B5CC-4AC6-9187-A65C9B2368AB}"/>

--- a/dbplan.xlsx
+++ b/dbplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\data_by_daylight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D83A03D-DB7A-4225-91FA-2DF25031AB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0AE164-539C-40E6-97D5-2D7CB3919E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13800" yWindow="150" windowWidth="13740" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1110" windowWidth="15150" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="50">
   <si>
     <t>survivor</t>
   </si>
@@ -81,9 +81,6 @@
     <t>survivorID</t>
   </si>
   <si>
-    <t>achievment</t>
-  </si>
-  <si>
     <t>charm</t>
   </si>
   <si>
@@ -147,7 +144,37 @@
     <t>id</t>
   </si>
   <si>
-    <t>difficulty</t>
+    <t>portrait</t>
+  </si>
+  <si>
+    <t>portraitLarge</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>nationality</t>
+  </si>
+  <si>
+    <t>voiceActor</t>
+  </si>
+  <si>
+    <t>dlcID</t>
+  </si>
+  <si>
+    <t>lore</t>
+  </si>
+  <si>
+    <t>overview</t>
+  </si>
+  <si>
+    <t>weapon</t>
+  </si>
+  <si>
+    <t>achievement</t>
   </si>
 </sst>
 </file>
@@ -179,7 +206,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,6 +216,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,7 +353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -353,6 +386,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -636,18 +681,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
     <col min="8" max="8" width="3.7109375" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.7109375" customWidth="1"/>
@@ -655,33 +700,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10"/>
-      <c r="E1" s="8" t="s">
+      <c r="A1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="15"/>
+      <c r="E1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
-      <c r="I1" s="8" t="s">
+      <c r="F1" s="14"/>
+      <c r="G1" s="15"/>
+      <c r="I1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="10"/>
-      <c r="M1" s="8" t="s">
+      <c r="J1" s="14"/>
+      <c r="K1" s="15"/>
+      <c r="M1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="10"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="15"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>16</v>
@@ -690,7 +735,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>16</v>
@@ -699,7 +744,7 @@
         <v>15</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>16</v>
@@ -708,7 +753,7 @@
         <v>15</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>16</v>
@@ -717,14 +762,18 @@
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3"/>
+      <c r="F3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="4"/>
       <c r="K3" s="3"/>
@@ -735,14 +784,18 @@
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="3"/>
+      <c r="F4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="4"/>
       <c r="K4" s="3"/>
@@ -753,14 +806,18 @@
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="3"/>
+      <c r="F5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="4"/>
       <c r="K5" s="3"/>
@@ -770,7 +827,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>17</v>
@@ -778,608 +835,731 @@
       <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="7"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="3"/>
       <c r="M6" s="5"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7"/>
     </row>
-    <row r="8" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="E8" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-      <c r="I8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10"/>
-      <c r="M8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="9"/>
-      <c r="O8" s="10"/>
-      <c r="Q8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="3"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="3"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>39</v>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>7</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="3"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3"/>
+      <c r="F10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="4"/>
       <c r="K10" s="3"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="3"/>
-      <c r="Q10" t="s">
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="3"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="7"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+    </row>
+    <row r="14" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="E14" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
+      <c r="I14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="9"/>
+      <c r="K14" s="10"/>
+      <c r="M14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="9"/>
+      <c r="O14" s="10"/>
+      <c r="Q14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="3"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="3"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="3"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="3"/>
+      <c r="Q16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="7"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="7"/>
-      <c r="Q11" t="s">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="7"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="7"/>
+      <c r="Q17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="8" t="s">
+    <row r="19" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="E13" s="8" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="E19" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-      <c r="I13" s="8" t="s">
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
+      <c r="I19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="10"/>
-      <c r="M13" s="8" t="s">
+      <c r="J19" s="9"/>
+      <c r="K19" s="10"/>
+      <c r="M19" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="N19" s="14"/>
+      <c r="O19" s="15"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="3"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="3"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="3"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="7"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="7"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="7"/>
+    </row>
+    <row r="24" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="E24" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="10"/>
+      <c r="I24" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="N13" s="9"/>
-      <c r="O13" s="10"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="3"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="3"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="3"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="7"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="7"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="7"/>
-    </row>
-    <row r="18" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="E18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
-      <c r="I18" s="8" t="s">
+      <c r="J24" s="9"/>
+      <c r="K24" s="10"/>
+      <c r="M24" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="10"/>
-      <c r="M18" s="8" t="s">
+      <c r="N24" s="9"/>
+      <c r="O24" s="10"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="3"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="3"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="3"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="7"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="7"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="7"/>
+    </row>
+    <row r="29" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N18" s="9"/>
-      <c r="O18" s="10"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="2" t="s">
+      <c r="B29" s="9"/>
+      <c r="C29" s="10"/>
+      <c r="E29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="10"/>
+      <c r="I29" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" s="9"/>
+      <c r="K29" s="10"/>
+      <c r="M29" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N29" s="9"/>
+      <c r="O29" s="10"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="3"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="3"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="3"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="7"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="7"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="7"/>
-    </row>
-    <row r="23" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="E23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="10"/>
-      <c r="I23" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="10"/>
-      <c r="M23" s="8" t="s">
+      <c r="G30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="3"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="3"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="3"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="7"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="7"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="7"/>
+    </row>
+    <row r="34" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A34" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="N23" s="9"/>
-      <c r="O23" s="10"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="2" t="s">
+      <c r="B34" s="9"/>
+      <c r="C34" s="10"/>
+      <c r="E34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="10"/>
+      <c r="I34" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J34" s="9"/>
+      <c r="K34" s="10"/>
+      <c r="M34" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N34" s="9"/>
+      <c r="O34" s="10"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="3"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="3"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="3"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="7"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="7"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="7"/>
-    </row>
-    <row r="28" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
-      <c r="E28" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="10"/>
-      <c r="I28" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J28" s="9"/>
-      <c r="K28" s="10"/>
-      <c r="M28" s="8" t="s">
+      <c r="G35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="3"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="3"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="3"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="3"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="7"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="7"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="7"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="7"/>
+    </row>
+    <row r="39" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A39" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="N28" s="9"/>
-      <c r="O28" s="10"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="3"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="3"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="3"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="7"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="7"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="7"/>
-    </row>
-    <row r="33" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="8" t="s">
+      <c r="B39" s="14"/>
+      <c r="C39" s="15"/>
+      <c r="E39" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
-      <c r="E33" s="8" t="s">
+      <c r="F39" s="9"/>
+      <c r="G39" s="10"/>
+      <c r="I39" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J39" s="14"/>
+      <c r="K39" s="15"/>
+      <c r="M39" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="N39" s="9"/>
+      <c r="O39" s="10"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="3"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="3"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="10"/>
-      <c r="I33" s="8" t="s">
+      <c r="K41" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M41" s="1"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="7"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="7"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M42" s="5"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="7"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I43" s="1"/>
+      <c r="J43" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I44" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J44" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="10"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="3"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="3"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="7"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="7"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I37" s="1"/>
-      <c r="J37" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I38" s="1"/>
-      <c r="J38" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I39" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K39" s="7" t="s">
+      <c r="K44" s="7" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="M24:O24"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="M1:O1"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="M14:O14"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="Q8" r:id="rId1" xr:uid="{03B201B6-B5CC-4AC6-9187-A65C9B2368AB}"/>
+    <hyperlink ref="Q14" r:id="rId1" xr:uid="{03B201B6-B5CC-4AC6-9187-A65C9B2368AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/dbplan.xlsx
+++ b/dbplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\data_by_daylight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0AE164-539C-40E6-97D5-2D7CB3919E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BD001F-E67E-48FC-9280-DE4AC07A8FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1515" yWindow="1110" windowWidth="15150" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -376,6 +376,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -385,12 +388,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -398,6 +395,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -683,7 +683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -700,26 +700,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15"/>
-      <c r="E1" s="13" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
+      <c r="E1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="15"/>
-      <c r="I1" s="13" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="14"/>
+      <c r="I1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="15"/>
-      <c r="M1" s="13" t="s">
+      <c r="J1" s="13"/>
+      <c r="K1" s="14"/>
+      <c r="M1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="15"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="14"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -850,9 +850,9 @@
       <c r="O6" s="7"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
       <c r="E7" s="1"/>
       <c r="F7" s="4" t="s">
         <v>46</v>
@@ -863,14 +863,14 @@
       <c r="I7" s="1"/>
       <c r="J7" s="4"/>
       <c r="K7" s="3"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
       <c r="E8" s="1"/>
       <c r="F8" s="4" t="s">
         <v>41</v>
@@ -881,14 +881,14 @@
       <c r="I8" s="1"/>
       <c r="J8" s="4"/>
       <c r="K8" s="3"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
       <c r="E9" s="1"/>
       <c r="F9" s="4" t="s">
         <v>42</v>
@@ -899,14 +899,14 @@
       <c r="I9" s="1"/>
       <c r="J9" s="4"/>
       <c r="K9" s="3"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
       <c r="E10" s="1"/>
       <c r="F10" s="4" t="s">
         <v>43</v>
@@ -917,14 +917,14 @@
       <c r="I10" s="1"/>
       <c r="J10" s="4"/>
       <c r="K10" s="3"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
       <c r="E11" s="1"/>
       <c r="F11" s="4" t="s">
         <v>44</v>
@@ -935,9 +935,9 @@
       <c r="I11" s="1"/>
       <c r="J11" s="4"/>
       <c r="K11" s="3"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E12" s="5" t="s">
@@ -952,36 +952,36 @@
       <c r="I12" s="5"/>
       <c r="J12" s="6"/>
       <c r="K12" s="7"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
     </row>
     <row r="14" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="E14" s="13" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="E14" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="I14" s="8" t="s">
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
+      <c r="I14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="10"/>
-      <c r="M14" s="8" t="s">
+      <c r="J14" s="10"/>
+      <c r="K14" s="11"/>
+      <c r="M14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="9"/>
-      <c r="O14" s="10"/>
-      <c r="Q14" s="11" t="s">
+      <c r="N14" s="10"/>
+      <c r="O14" s="11"/>
+      <c r="Q14" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1059,26 +1059,26 @@
       </c>
     </row>
     <row r="19" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="E19" s="13" t="s">
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="E19" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
-      <c r="I19" s="8" t="s">
+      <c r="F19" s="13"/>
+      <c r="G19" s="14"/>
+      <c r="I19" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="10"/>
-      <c r="M19" s="13" t="s">
+      <c r="J19" s="10"/>
+      <c r="K19" s="11"/>
+      <c r="M19" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="N19" s="14"/>
-      <c r="O19" s="15"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="14"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -1147,26 +1147,26 @@
       <c r="O22" s="7"/>
     </row>
     <row r="24" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="E24" s="8" t="s">
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="E24" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="10"/>
-      <c r="I24" s="8" t="s">
+      <c r="F24" s="10"/>
+      <c r="G24" s="11"/>
+      <c r="I24" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="10"/>
-      <c r="M24" s="8" t="s">
+      <c r="J24" s="10"/>
+      <c r="K24" s="11"/>
+      <c r="M24" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="9"/>
-      <c r="O24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="11"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -1235,26 +1235,26 @@
       <c r="O27" s="7"/>
     </row>
     <row r="29" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="10"/>
-      <c r="E29" s="8" t="s">
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="E29" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="10"/>
-      <c r="I29" s="8" t="s">
+      <c r="F29" s="10"/>
+      <c r="G29" s="11"/>
+      <c r="I29" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J29" s="9"/>
-      <c r="K29" s="10"/>
-      <c r="M29" s="8" t="s">
+      <c r="J29" s="10"/>
+      <c r="K29" s="11"/>
+      <c r="M29" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N29" s="9"/>
-      <c r="O29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="11"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -1323,26 +1323,26 @@
       <c r="O32" s="7"/>
     </row>
     <row r="34" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="10"/>
-      <c r="E34" s="8" t="s">
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="E34" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="10"/>
-      <c r="I34" s="8" t="s">
+      <c r="F34" s="10"/>
+      <c r="G34" s="11"/>
+      <c r="I34" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J34" s="9"/>
-      <c r="K34" s="10"/>
-      <c r="M34" s="8" t="s">
+      <c r="J34" s="10"/>
+      <c r="K34" s="11"/>
+      <c r="M34" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="N34" s="9"/>
-      <c r="O34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="11"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -1411,26 +1411,26 @@
       <c r="O37" s="7"/>
     </row>
     <row r="39" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="15"/>
-      <c r="E39" s="8" t="s">
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="E39" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="10"/>
-      <c r="I39" s="13" t="s">
+      <c r="F39" s="10"/>
+      <c r="G39" s="11"/>
+      <c r="I39" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J39" s="14"/>
-      <c r="K39" s="15"/>
-      <c r="M39" s="8" t="s">
+      <c r="J39" s="13"/>
+      <c r="K39" s="14"/>
+      <c r="M39" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="N39" s="9"/>
-      <c r="O39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="11"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -1528,6 +1528,23 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="M24:O24"/>
     <mergeCell ref="M39:O39"/>
     <mergeCell ref="I39:K39"/>
     <mergeCell ref="A39:C39"/>
@@ -1540,23 +1557,6 @@
     <mergeCell ref="E34:G34"/>
     <mergeCell ref="I34:K34"/>
     <mergeCell ref="M34:O34"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="M14:O14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Q14" r:id="rId1" xr:uid="{03B201B6-B5CC-4AC6-9187-A65C9B2368AB}"/>
